--- a/nueva_solicitud_formato.xlsx
+++ b/nueva_solicitud_formato.xlsx
@@ -1,60 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/paulina_mejia_iteso_mx/Documents/9 SEMESTRE/MODELOS DE CRÉDITO/02_CreditModel_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_AABD3EFC984A5A4EE076ACB6554CB6F92ED7AA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3856CD9-3730-0E4E-A033-2FD5A00A7262}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Solicitudes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Solicitudes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>INSTRUCCIONES: Llene una fila por cliente. No cambie el nombre NI el orden de las 8 columnas. Si un dato no aplica, ponga 0.</t>
+  </si>
+  <si>
+    <t>Monthly_Inhand_Salary</t>
+  </si>
+  <si>
+    <t>Total_EMI_per_month</t>
+  </si>
+  <si>
+    <t>Credit_Utilization_Ratio</t>
+  </si>
+  <si>
+    <t>Credit_History_Age</t>
+  </si>
+  <si>
+    <t>Num_of_Delayed_Payment</t>
+  </si>
+  <si>
+    <t>Num_Credit_Inquiries</t>
+  </si>
+  <si>
+    <t>Outstanding_Debt</t>
+  </si>
+  <si>
+    <t>Monthly_Balance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
       <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0034495E"/>
-        <bgColor rgb="0034495E"/>
+        <fgColor rgb="FF34495E"/>
+        <bgColor rgb="FF34495E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002E86C1"/>
-        <bgColor rgb="002E86C1"/>
+        <fgColor rgb="FF2E86C1"/>
+        <bgColor rgb="FF2E86C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,99 +105,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -447,209 +433,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
+    <col min="1" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Instrucciones: Reemplace los valores de ejemplo con los datos del nuevo cliente y guarde el archivo antes de ejecutar la FASE 12.</t>
-        </is>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Occupation</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Annual_Income</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Monthly_Inhand_Salary</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Num_Bank_Accounts</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Num_Credit_Card</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Interest_Rate</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Num_of_Loan</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Delay_from_due_date</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Num_of_Delayed_Payment</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Changed_Credit_Limit</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Num_Credit_Inquiries</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Credit_Mix</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Outstanding_Debt</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>Credit_Utilization_Ratio</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>Credit_History_Age</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>Payment_of_Min_Amount</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>Total_EMI_per_month</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>Amount_invested_monthly</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>Payment_Behaviour</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Monthly_Balance</t>
-        </is>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>35</v>
-      </c>
-      <c r="C3" t="n">
-        <v>480000</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>40000</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>320</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5000</v>
+      <c r="G3">
+        <v>1300</v>
+      </c>
+      <c r="H3">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nueva_solicitud_formato.xlsx
+++ b/nueva_solicitud_formato.xlsx
@@ -1,49 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/paulina_mejia_iteso_mx/Documents/9 SEMESTRE/MODELOS DE CRÉDITO/02_CreditModel_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AABD3EFC984A5A4EE076ACB6554CB6F92ED7AA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3856CD9-3730-0E4E-A033-2FD5A00A7262}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AABD917C1B7BEA8FE45BF8365D007EBC107BA295" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A928701-AAF2-8C45-98F9-06F19C9E0745}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28480" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitudes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>INSTRUCCIONES: Llene una fila por cliente. No cambie el nombre NI el orden de las 8 columnas. Si un dato no aplica, ponga 0.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Instrucciones: Reemplace los valores de ejemplo con los datos del nuevo cliente y guarde el archivo antes de ejecutar la FASE 11.</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Annual_Income</t>
   </si>
   <si>
     <t>Monthly_Inhand_Salary</t>
   </si>
   <si>
+    <t>Num_Bank_Accounts</t>
+  </si>
+  <si>
+    <t>Num_Credit_Card</t>
+  </si>
+  <si>
+    <t>Interest_Rate</t>
+  </si>
+  <si>
+    <t>Num_of_Loan</t>
+  </si>
+  <si>
+    <t>Delay_from_due_date</t>
+  </si>
+  <si>
+    <t>Num_of_Delayed_Payment</t>
+  </si>
+  <si>
+    <t>Changed_Credit_Limit</t>
+  </si>
+  <si>
+    <t>Num_Credit_Inquiries</t>
+  </si>
+  <si>
+    <t>Credit_Mix</t>
+  </si>
+  <si>
+    <t>Outstanding_Debt</t>
+  </si>
+  <si>
+    <t>Credit_Utilization_Ratio</t>
+  </si>
+  <si>
+    <t>Credit_History_Age</t>
+  </si>
+  <si>
+    <t>Payment_of_Min_Amount</t>
+  </si>
+  <si>
     <t>Total_EMI_per_month</t>
   </si>
   <si>
-    <t>Credit_Utilization_Ratio</t>
-  </si>
-  <si>
-    <t>Credit_History_Age</t>
-  </si>
-  <si>
-    <t>Num_of_Delayed_Payment</t>
-  </si>
-  <si>
-    <t>Num_Credit_Inquiries</t>
-  </si>
-  <si>
-    <t>Outstanding_Debt</t>
+    <t>Amount_invested_monthly</t>
+  </si>
+  <si>
+    <t>Payment_Behaviour</t>
   </si>
   <si>
     <t>Monthly_Balance</t>
@@ -434,18 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="20" customWidth="1"/>
+    <col min="1" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +508,21 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,36 +547,202 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>480000</v>
+      </c>
+      <c r="D3">
         <v>40000</v>
       </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>320</v>
-      </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1300</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>4000</v>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>2000</v>
+      </c>
+      <c r="S3">
+        <v>1500</v>
+      </c>
+      <c r="U3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>1080000</v>
+      </c>
+      <c r="D4">
+        <v>85000</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>220</v>
+      </c>
+      <c r="R4">
+        <v>3000</v>
+      </c>
+      <c r="S4">
+        <v>10000</v>
+      </c>
+      <c r="U4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>180000</v>
+      </c>
+      <c r="D5">
+        <v>12000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>65000</v>
+      </c>
+      <c r="O5">
+        <v>85</v>
+      </c>
+      <c r="P5">
+        <v>70</v>
+      </c>
+      <c r="R5">
+        <v>7000</v>
+      </c>
+      <c r="S5">
+        <v>200</v>
+      </c>
+      <c r="U5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
